--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
@@ -25,10 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
-    <numFmt numFmtId="166" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,134 +383,125 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>830</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1230</v>
-      </c>
-      <c r="D2" s="1">
-        <f>IFERROR(TIMEVALUE(LEFT(C2-B2,LEN(C2-B2)-2)&amp;":"&amp;RIGHT(C2-B2,2)),0)</f>
-        <v>0.16666666666666666</v>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D11" si="0">IFERROR(TIMEVALUE(LEFT(C3-B3,LEN(C3-B3)-2)&amp;":"&amp;RIGHT(C3-B3,2)),0)</f>
-        <v>0.16666666666666666</v>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>830</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>815</v>
+      </c>
+      <c r="C4" s="2">
         <v>1230</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1300</v>
       </c>
-      <c r="C5" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="C5" s="2">
+        <v>1715</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>830</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1230</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -518,13 +509,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -532,34 +523,45 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>0.99999999999999989</v>
+        <v>8.5</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f>40-D12</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="166" formatCode="0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -62,41 +63,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,197 +344,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IFERROR(TIMEVALUE(LEFT(C2-B2,LEN(C2-B2)-2)&amp;":"&amp;RIGHT(C2-B2,2)),0)</f>
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="0">IFERROR(TIMEVALUE(LEFT(C3-B3,LEN(C3-B3)-2)&amp;":"&amp;RIGHT(C3-B3,2)),0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>815</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="3">
+        <v>830</v>
+      </c>
+      <c r="C4" s="3">
         <v>1230</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1300</v>
       </c>
-      <c r="C5" s="2">
-        <v>1715</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+      <c r="C5" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>830</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1430</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>830</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1230</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1730</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>830</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1230</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
+      <c r="B11" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1730</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
         <f>SUM(D2:D11)</f>
-        <v>8.5</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="3">
-        <f>40-D12</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
-    <numFmt numFmtId="166" formatCode="0000"/>
+    <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,13 +62,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,210 +371,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <f>IFERROR(TIMEVALUE(LEFT(C2-B2,LEN(C2-B2)-2)&amp;":"&amp;RIGHT(C2-B2,2)),0)</f>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
         <v>0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D11" si="0">IFERROR(TIMEVALUE(LEFT(C3-B3,LEN(C3-B3)-2)&amp;":"&amp;RIGHT(C3-B3,2)),0)</f>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>830</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>815</v>
+      </c>
+      <c r="C4" s="2">
         <v>1230</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1300</v>
       </c>
-      <c r="C5" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+      <c r="C5" s="2">
+        <v>1715</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>830</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1430</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>830</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1230</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1730</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
-        <v>830</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1230</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3">
-        <v>1300</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1730</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>1.4583333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f>40-D12</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashav1\Documents\GitHub\auto_timesheet_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,12 +399,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3">
         <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
         <v>0</v>
@@ -417,12 +413,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
         <v>0</v>
@@ -435,15 +427,11 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>815</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1230</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -453,15 +441,11 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1715</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -549,7 +533,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
@@ -557,7 +541,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <f>40-D12</f>
-        <v>31.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>a</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +383,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,8 +407,12 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="3">
         <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
         <v>0</v>
@@ -413,7 +425,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,9 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
         <v>0</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -29,7 +29,7 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
+    <t>as</t>
   </si>
 </sst>
 </file>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>as</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +449,9 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,9 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -465,7 +470,9 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +476,9 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,9 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,9 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,26 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,7 +379,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,12 +421,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
         <v>0</v>
@@ -458,12 +435,8 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -476,12 +449,8 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -494,12 +463,8 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>as</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +383,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +439,9 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashav1\Documents\GitHub\auto_timesheet_fill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>as</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +375,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
@@ -425,8 +417,12 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
         <v>0</v>
@@ -439,13 +435,15 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>815</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1230</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -455,11 +453,15 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1715</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -547,7 +549,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
@@ -555,7 +557,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <f>40-D12</f>
-        <v>40</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashav1\Documents\GitHub\auto_timesheet_fill\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -471,7 +471,9 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>830</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,9 +471,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>830</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,15 +375,15 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -395,7 +395,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,7 +413,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -431,25 +431,25 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>815</v>
+        <v>800</v>
       </c>
       <c r="C4" s="2">
         <v>1230</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -457,73 +457,89 @@
         <v>1300</v>
       </c>
       <c r="C5" s="2">
-        <v>1715</v>
+        <v>1730</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>830</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1300</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1730</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2">
+        <v>800</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1230</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1730</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -535,7 +551,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -546,21 +562,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>8.5</v>
+        <v>26.5</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D13" s="3">
         <f>40-D12</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
       <c r="G17" s="1"/>
     </row>
   </sheetData>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,15 +375,15 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -395,79 +395,79 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="D2" s="3">
         <f>IFERROR((RIGHT(C2,2)/60 + LEFT(C2,LEN(C2)-2))-(RIGHT(B2,2)/60 + LEFT(B2,LEN(B2)-2)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D11" si="0">IFERROR((RIGHT(C3,2)/60 + LEFT(C3,LEN(C3)-2))-(RIGHT(B3,2)/60 + LEFT(B3,LEN(B3)-2)),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="C4" s="2">
         <v>1230</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>1300</v>
+        <v>1330</v>
       </c>
       <c r="C5" s="2">
         <v>1730</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -475,17 +475,17 @@
         <v>830</v>
       </c>
       <c r="C6" s="2">
-        <v>1300</v>
+        <v>1230</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -503,80 +503,88 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="C8" s="2">
         <v>1230</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>1300</v>
+        <v>1330</v>
       </c>
       <c r="C9" s="2">
         <v>1730</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>830</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1230</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1730</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <f>SUM(D2:D11)</f>
-        <v>26.5</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <f>40-D12</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
